--- a/shoraka/others.xlsx
+++ b/shoraka/others.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G L S\Dropbox\shoraka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000_projects\exel_010\shoraka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33128794-5B34-4F97-8147-90E6BE559291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9201074-61AF-4F00-B27E-35B573DA786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="رمضون" sheetId="2" r:id="rId1"/>
@@ -31,10 +31,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sina!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -957,7 +966,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="403-4"/>
@@ -1263,18 +1272,18 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45809</v>
       </c>
@@ -1323,7 +1332,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45809</v>
       </c>
@@ -1345,7 +1354,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45818</v>
       </c>
@@ -1367,7 +1376,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45823</v>
       </c>
@@ -1389,7 +1398,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45839</v>
       </c>
@@ -1409,7 +1418,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45901</v>
       </c>
@@ -1431,7 +1440,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45910</v>
       </c>
@@ -1453,7 +1462,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>45928</v>
       </c>
@@ -1475,7 +1484,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>45928</v>
       </c>
@@ -1495,7 +1504,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>45931</v>
       </c>
@@ -1515,7 +1524,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>45943</v>
       </c>
@@ -1534,7 +1543,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>45962.1</v>
       </c>
@@ -1554,7 +1563,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>45967</v>
       </c>
@@ -1576,7 +1585,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>45967</v>
       </c>
@@ -1598,7 +1607,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>45972</v>
       </c>
@@ -1620,7 +1629,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>45972</v>
       </c>
@@ -1642,7 +1651,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>45976</v>
       </c>
@@ -1664,7 +1673,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>46011</v>
       </c>
@@ -1681,7 +1690,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>46013</v>
       </c>
@@ -1700,7 +1709,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>46013</v>
       </c>
@@ -1719,7 +1728,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>46014</v>
       </c>
@@ -1738,7 +1747,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>46017</v>
       </c>
@@ -1757,7 +1766,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>46017</v>
       </c>
@@ -1778,7 +1787,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>45667</v>
       </c>
@@ -1795,7 +1804,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" s="46" customFormat="1" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="46" customFormat="1" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
         <v>73</v>
       </c>
@@ -1826,7 +1835,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="42"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1841,18 +1850,18 @@
       <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45815</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45845</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45876</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45907</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45937</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45968</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45998</v>
       </c>
@@ -2004,7 +2013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>46029</v>
       </c>
@@ -2022,7 +2031,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2032,7 +2041,7 @@
       <c r="G10" s="40"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2042,7 +2051,7 @@
       <c r="G11" s="40"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2052,7 +2061,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>73</v>
       </c>
@@ -2082,7 +2091,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2096,18 +2105,18 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45810</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45840</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45871</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45537</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45932</v>
       </c>
@@ -2223,7 +2232,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45963</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45993</v>
       </c>
@@ -2259,7 +2268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>46024</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2287,7 +2296,7 @@
       <c r="G10" s="40"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2297,7 +2306,7 @@
       <c r="G11" s="40"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2307,7 +2316,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>73</v>
       </c>
@@ -2337,7 +2346,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2351,18 +2360,18 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="6">
         <v>150000</v>
@@ -2408,7 +2417,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2419,7 +2428,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>73</v>
       </c>
@@ -2447,7 +2456,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="42"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2458,23 +2467,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3159FE94-7259-47F4-8315-FDC71CA749C5}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45402</v>
       </c>
@@ -2528,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45403</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="6">
         <v>25500</v>
@@ -2570,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45405</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45406</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45412</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45418</v>
       </c>
@@ -2665,7 +2674,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>45420</v>
       </c>
@@ -2689,7 +2698,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>45420</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>45420</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>45421</v>
       </c>
@@ -2755,7 +2764,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>45425</v>
       </c>
@@ -2777,7 +2786,7 @@
         <v>-10080</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>45426</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>-16800</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>45427</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>-26880</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>45432</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>-11760</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>45432</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>-13440</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>45434</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>45434</v>
       </c>
@@ -2909,7 +2918,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>45434</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>45435</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>45435</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>-13920</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>45436</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>-8400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>45436</v>
       </c>
@@ -3015,7 +3024,7 @@
         <v>-16200</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>45436</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>45439</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>45439</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>-1680</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>45439</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>-1680</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>45440</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>-11200</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>45441</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>45449</v>
       </c>
@@ -3165,7 +3174,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>45450</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>45460</v>
       </c>
@@ -3209,7 +3218,7 @@
         <v>60460</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>45460</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>45461</v>
       </c>
@@ -3249,7 +3258,7 @@
         <v>52661</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>45461</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>45461</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>47131</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>45463</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>58903</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>45463</v>
       </c>
@@ -3329,7 +3338,7 @@
         <v>49965</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>45464</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>56264</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>45464</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>46014</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>45467</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>52667</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>45468</v>
       </c>
@@ -3409,7 +3418,7 @@
         <v>53868</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>45468</v>
       </c>
@@ -3429,7 +3438,7 @@
         <v>49628</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>45476</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>50732</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>45476</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>65276</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>45476</v>
       </c>
@@ -3489,7 +3498,7 @@
         <v>47156</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>45476</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>66276</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>45476</v>
       </c>
@@ -3529,7 +3538,7 @@
         <v>47156</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>45477</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>45477</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>56277</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>45477</v>
       </c>
@@ -3591,7 +3600,7 @@
         <v>53877</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>45478</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>48678</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>45482</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>63482</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>45485</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>62285</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>45485</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>52685</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>45487</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>46967</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>45487</v>
       </c>
@@ -3711,7 +3720,7 @@
         <v>48847</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>45507</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>53007</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>45507</v>
       </c>
@@ -3751,7 +3760,7 @@
         <v>51527</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>45507</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>45715</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>45519</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>47319</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="45" t="s">
         <v>73</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>95878</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3836,17 +3845,17 @@
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45399</v>
       </c>
@@ -3895,7 +3904,7 @@
       </c>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45764</v>
       </c>
@@ -3913,7 +3922,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45770</v>
       </c>
@@ -3931,7 +3940,7 @@
       <c r="H4" s="32"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45770</v>
       </c>
@@ -3951,7 +3960,7 @@
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45770</v>
       </c>
@@ -3971,7 +3980,7 @@
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45770</v>
       </c>
@@ -3989,7 +3998,7 @@
       <c r="H7" s="32"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45777</v>
       </c>
@@ -4007,7 +4016,7 @@
       <c r="H8" s="32"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>45777</v>
       </c>
@@ -4025,7 +4034,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>45778</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>45778</v>
       </c>
@@ -4065,7 +4074,7 @@
       <c r="H11" s="32"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>45783</v>
       </c>
@@ -4083,7 +4092,7 @@
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>45783</v>
       </c>
@@ -4101,7 +4110,7 @@
       <c r="H13" s="32"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>45785</v>
       </c>
@@ -4119,7 +4128,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>45785</v>
       </c>
@@ -4137,7 +4146,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>45785</v>
       </c>
@@ -4155,7 +4164,7 @@
       <c r="H16" s="32"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>45785</v>
       </c>
@@ -4173,7 +4182,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>45786</v>
       </c>
@@ -4191,7 +4200,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>45786</v>
       </c>
@@ -4211,7 +4220,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>45790</v>
       </c>
@@ -4229,7 +4238,7 @@
       <c r="H20" s="32"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>45790</v>
       </c>
@@ -4247,7 +4256,7 @@
       <c r="H21" s="32"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>45791</v>
       </c>
@@ -4265,7 +4274,7 @@
       <c r="H22" s="32"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>45792</v>
       </c>
@@ -4283,7 +4292,7 @@
       <c r="H23" s="32"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>45797</v>
       </c>
@@ -4301,7 +4310,7 @@
       <c r="H24" s="32"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>45797</v>
       </c>
@@ -4319,7 +4328,7 @@
       <c r="H25" s="32"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>45798</v>
       </c>
@@ -4337,7 +4346,7 @@
       <c r="H26" s="32"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>45799</v>
       </c>
@@ -4357,7 +4366,7 @@
       </c>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>45800</v>
       </c>
@@ -4375,7 +4384,7 @@
       <c r="H28" s="32"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>45801</v>
       </c>
@@ -4393,7 +4402,7 @@
       <c r="H29" s="32"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>45804</v>
       </c>
@@ -4413,7 +4422,7 @@
       </c>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>45804</v>
       </c>
@@ -4431,7 +4440,7 @@
       <c r="H31" s="32"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>45805</v>
       </c>
@@ -4449,7 +4458,7 @@
       <c r="H32" s="32"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>45814</v>
       </c>
@@ -4469,7 +4478,7 @@
       </c>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>45814</v>
       </c>
@@ -4487,7 +4496,7 @@
       <c r="H34" s="32"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>45825</v>
       </c>
@@ -4505,7 +4514,7 @@
       <c r="H35" s="32"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>70</v>
       </c>
@@ -4523,7 +4532,7 @@
       <c r="H36" s="32"/>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>45826</v>
       </c>
@@ -4543,7 +4552,7 @@
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>45828</v>
       </c>
@@ -4561,7 +4570,7 @@
       <c r="H38" s="32"/>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>45829</v>
       </c>
@@ -4579,7 +4588,7 @@
       <c r="H39" s="32"/>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>45829</v>
       </c>
@@ -4597,7 +4606,7 @@
       <c r="H40" s="32"/>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>45832</v>
       </c>
@@ -4615,7 +4624,7 @@
       <c r="H41" s="32"/>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>45833</v>
       </c>
@@ -4633,7 +4642,7 @@
       <c r="H42" s="32"/>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>45833</v>
       </c>
@@ -4651,7 +4660,7 @@
       <c r="H43" s="32"/>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>45841</v>
       </c>
@@ -4669,7 +4678,7 @@
       <c r="H44" s="32"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>45841</v>
       </c>
@@ -4687,7 +4696,7 @@
       <c r="H45" s="32"/>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>45841</v>
       </c>
@@ -4705,7 +4714,7 @@
       <c r="H46" s="32"/>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>45842</v>
       </c>
@@ -4723,7 +4732,7 @@
       <c r="H47" s="32"/>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>45843</v>
       </c>
@@ -4741,7 +4750,7 @@
       <c r="H48" s="32"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>45847</v>
       </c>
@@ -4759,7 +4768,7 @@
       <c r="H49" s="32"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>45850</v>
       </c>
@@ -4777,7 +4786,7 @@
       <c r="H50" s="32"/>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>45852</v>
       </c>
@@ -4795,7 +4804,7 @@
       <c r="H51" s="32"/>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>45853</v>
       </c>
@@ -4813,7 +4822,7 @@
       <c r="H52" s="32"/>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="24">
         <v>45867</v>
       </c>
@@ -4831,7 +4840,7 @@
       <c r="H53" s="32"/>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>73</v>
       </c>
@@ -4862,7 +4871,7 @@
       <c r="H54" s="32"/>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -4870,7 +4879,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="26"/>
     </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
@@ -4878,7 +4887,7 @@
       <c r="E56" s="27"/>
       <c r="F56" s="26"/>
     </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
@@ -4886,7 +4895,7 @@
       <c r="E57" s="27"/>
       <c r="F57" s="26"/>
     </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
@@ -4894,7 +4903,7 @@
       <c r="E58" s="27"/>
       <c r="F58" s="26"/>
     </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -4902,7 +4911,7 @@
       <c r="E59" s="27"/>
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -4910,7 +4919,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="26"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -4918,7 +4927,7 @@
       <c r="E61" s="27"/>
       <c r="F61" s="26"/>
     </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -4926,7 +4935,7 @@
       <c r="E62" s="27"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -4934,7 +4943,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -4942,7 +4951,7 @@
       <c r="E64" s="27"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -4950,7 +4959,7 @@
       <c r="E65" s="27"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -4958,7 +4967,7 @@
       <c r="E66" s="27"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -4966,7 +4975,7 @@
       <c r="E67" s="27"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -4974,7 +4983,7 @@
       <c r="E68" s="27"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -4982,7 +4991,7 @@
       <c r="E69" s="27"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -4990,7 +4999,7 @@
       <c r="E70" s="27"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -4998,7 +5007,7 @@
       <c r="E71" s="27"/>
       <c r="F71" s="26"/>
     </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -5006,7 +5015,7 @@
       <c r="E72" s="27"/>
       <c r="F72" s="26"/>
     </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -5014,7 +5023,7 @@
       <c r="E73" s="27"/>
       <c r="F73" s="26"/>
     </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
@@ -5022,7 +5031,7 @@
       <c r="E74" s="27"/>
       <c r="F74" s="26"/>
     </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
@@ -5030,7 +5039,7 @@
       <c r="E75" s="27"/>
       <c r="F75" s="26"/>
     </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -5038,7 +5047,7 @@
       <c r="E76" s="27"/>
       <c r="F76" s="26"/>
     </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -5046,7 +5055,7 @@
       <c r="E77" s="27"/>
       <c r="F77" s="26"/>
     </row>
-    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -5054,7 +5063,7 @@
       <c r="E78" s="27"/>
       <c r="F78" s="26"/>
     </row>
-    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -5062,7 +5071,7 @@
       <c r="E79" s="27"/>
       <c r="F79" s="26"/>
     </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -5070,7 +5079,7 @@
       <c r="E80" s="27"/>
       <c r="F80" s="26"/>
     </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -5078,7 +5087,7 @@
       <c r="E81" s="27"/>
       <c r="F81" s="26"/>
     </row>
-    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -5086,7 +5095,7 @@
       <c r="E82" s="27"/>
       <c r="F82" s="26"/>
     </row>
-    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -5094,7 +5103,7 @@
       <c r="E83" s="27"/>
       <c r="F83" s="26"/>
     </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -5102,7 +5111,7 @@
       <c r="E84" s="27"/>
       <c r="F84" s="26"/>
     </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -5110,7 +5119,7 @@
       <c r="E85" s="27"/>
       <c r="F85" s="26"/>
     </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -5118,7 +5127,7 @@
       <c r="E86" s="27"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A87" s="28"/>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -5126,7 +5135,7 @@
       <c r="E87" s="27"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A88" s="28"/>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -5134,7 +5143,7 @@
       <c r="E88" s="27"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -5142,7 +5151,7 @@
       <c r="E89" s="27"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A90" s="28"/>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -5150,7 +5159,7 @@
       <c r="E90" s="27"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A91" s="28"/>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -5158,7 +5167,7 @@
       <c r="E91" s="27"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A92" s="28"/>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -5166,7 +5175,7 @@
       <c r="E92" s="27"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A93" s="25"/>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -5174,7 +5183,7 @@
       <c r="E93" s="27"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A94" s="25"/>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -5182,7 +5191,7 @@
       <c r="E94" s="27"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A95" s="25"/>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -5190,7 +5199,7 @@
       <c r="E95" s="27"/>
       <c r="F95" s="26"/>
     </row>
-    <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A96" s="25"/>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -5198,7 +5207,7 @@
       <c r="E96" s="27"/>
       <c r="F96" s="26"/>
     </row>
-    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -5206,7 +5215,7 @@
       <c r="E97" s="27"/>
       <c r="F97" s="26"/>
     </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A98" s="25"/>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -5214,7 +5223,7 @@
       <c r="E98" s="27"/>
       <c r="F98" s="26"/>
     </row>
-    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A99" s="25"/>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -5222,7 +5231,7 @@
       <c r="E99" s="27"/>
       <c r="F99" s="26"/>
     </row>
-    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -5230,7 +5239,7 @@
       <c r="E100" s="27"/>
       <c r="F100" s="26"/>
     </row>
-    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A101" s="25"/>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
@@ -5238,7 +5247,7 @@
       <c r="E101" s="27"/>
       <c r="F101" s="26"/>
     </row>
-    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A102" s="25"/>
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
@@ -5246,7 +5255,7 @@
       <c r="E102" s="27"/>
       <c r="F102" s="26"/>
     </row>
-    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A103" s="25"/>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
@@ -5254,7 +5263,7 @@
       <c r="E103" s="27"/>
       <c r="F103" s="26"/>
     </row>
-    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A104" s="25"/>
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
@@ -5262,7 +5271,7 @@
       <c r="E104" s="27"/>
       <c r="F104" s="26"/>
     </row>
-    <row r="105" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A105" s="25"/>
       <c r="B105" s="26"/>
       <c r="C105" s="26"/>
@@ -5270,7 +5279,7 @@
       <c r="E105" s="27"/>
       <c r="F105" s="26"/>
     </row>
-    <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
       <c r="B106" s="26"/>
       <c r="C106" s="26"/>
@@ -5278,7 +5287,7 @@
       <c r="E106" s="27"/>
       <c r="F106" s="26"/>
     </row>
-    <row r="107" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A107" s="25"/>
       <c r="B107" s="26"/>
       <c r="C107" s="26"/>
@@ -5286,7 +5295,7 @@
       <c r="E107" s="27"/>
       <c r="F107" s="26"/>
     </row>
-    <row r="108" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A108" s="25"/>
       <c r="B108" s="26"/>
       <c r="C108" s="26"/>
@@ -5294,7 +5303,7 @@
       <c r="E108" s="27"/>
       <c r="F108" s="26"/>
     </row>
-    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A109" s="25"/>
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
@@ -5302,7 +5311,7 @@
       <c r="E109" s="27"/>
       <c r="F109" s="26"/>
     </row>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A110" s="25"/>
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
@@ -5310,7 +5319,7 @@
       <c r="E110" s="27"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A111" s="25"/>
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
@@ -5318,7 +5327,7 @@
       <c r="E111" s="27"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A112" s="25"/>
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
@@ -5326,7 +5335,7 @@
       <c r="E112" s="27"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A113" s="25"/>
       <c r="B113" s="26"/>
       <c r="C113" s="26"/>
@@ -5334,7 +5343,7 @@
       <c r="E113" s="27"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A114" s="25"/>
       <c r="B114" s="26"/>
       <c r="C114" s="26"/>
@@ -5342,7 +5351,7 @@
       <c r="E114" s="27"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A115" s="25"/>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
@@ -5350,7 +5359,7 @@
       <c r="E115" s="27"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A116" s="25"/>
       <c r="B116" s="26"/>
       <c r="C116" s="26"/>
@@ -5358,7 +5367,7 @@
       <c r="E116" s="27"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A117" s="25"/>
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
@@ -5366,7 +5375,7 @@
       <c r="E117" s="27"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A118" s="25"/>
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
@@ -5374,7 +5383,7 @@
       <c r="E118" s="27"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A119" s="25"/>
       <c r="B119" s="26"/>
       <c r="C119" s="26"/>
@@ -5382,7 +5391,7 @@
       <c r="E119" s="27"/>
       <c r="F119" s="26"/>
     </row>
-    <row r="120" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A120" s="25"/>
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
@@ -5390,7 +5399,7 @@
       <c r="E120" s="27"/>
       <c r="F120" s="26"/>
     </row>
-    <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A121" s="25"/>
       <c r="B121" s="26"/>
       <c r="C121" s="26"/>
@@ -5398,7 +5407,7 @@
       <c r="E121" s="27"/>
       <c r="F121" s="26"/>
     </row>
-    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A122" s="25"/>
       <c r="B122" s="26"/>
       <c r="C122" s="26"/>
@@ -5406,7 +5415,7 @@
       <c r="E122" s="27"/>
       <c r="F122" s="26"/>
     </row>
-    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A123" s="25"/>
       <c r="B123" s="26"/>
       <c r="C123" s="26"/>
@@ -5414,7 +5423,7 @@
       <c r="E123" s="27"/>
       <c r="F123" s="26"/>
     </row>
-    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A124" s="25"/>
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
@@ -5437,20 +5446,20 @@
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45398</v>
       </c>
@@ -5503,7 +5512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45400</v>
       </c>
@@ -5529,7 +5538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45419</v>
       </c>
@@ -5553,7 +5562,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45435</v>
       </c>
@@ -5575,7 +5584,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45435</v>
       </c>
@@ -5597,7 +5606,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45412</v>
       </c>
@@ -5621,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45412</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>73</v>
       </c>
@@ -5676,7 +5685,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5691,18 +5700,18 @@
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -5731,7 +5740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>46014</v>
       </c>
@@ -5750,7 +5759,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="39">
         <f>SUM(B2:B2)</f>
@@ -5776,7 +5785,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5786,21 +5795,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F32B905-6FA8-4F8F-BDA2-87F75A51F003}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="X46" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -5832,7 +5841,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>46006</v>
       </c>
@@ -5852,7 +5861,7 @@
       </c>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>46006</v>
       </c>
@@ -5872,7 +5881,7 @@
       </c>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>46006</v>
       </c>
@@ -5892,7 +5901,7 @@
       </c>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>46007</v>
       </c>
@@ -5910,7 +5919,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>46007</v>
       </c>
@@ -5928,7 +5937,7 @@
       </c>
       <c r="J6" s="60"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>46007</v>
       </c>
@@ -5948,7 +5957,7 @@
       </c>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>46007</v>
       </c>
@@ -5968,7 +5977,7 @@
       </c>
       <c r="J8" s="60"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>46007</v>
       </c>
@@ -5988,7 +5997,7 @@
       </c>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>46007</v>
       </c>
@@ -6006,7 +6015,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>46007</v>
       </c>
@@ -6024,7 +6033,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="60"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>46008</v>
       </c>
@@ -6044,7 +6053,7 @@
       </c>
       <c r="J12" s="60"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>46008</v>
       </c>
@@ -6062,7 +6071,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>46008</v>
       </c>
@@ -6082,7 +6091,7 @@
       </c>
       <c r="J14" s="60"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>46008</v>
       </c>
@@ -6100,7 +6109,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="60"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>46008</v>
       </c>
@@ -6120,7 +6129,7 @@
       </c>
       <c r="J16" s="60"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>46009</v>
       </c>
@@ -6136,7 +6145,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="60"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>46009</v>
       </c>
@@ -6154,7 +6163,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="60"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>46009</v>
       </c>
@@ -6172,7 +6181,7 @@
       </c>
       <c r="J19" s="60"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>46009</v>
       </c>
@@ -6192,7 +6201,7 @@
       </c>
       <c r="J20" s="60"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>46009</v>
       </c>
@@ -6210,7 +6219,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="60"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>46009</v>
       </c>
@@ -6228,7 +6237,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="60"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>46010</v>
       </c>
@@ -6244,7 +6253,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="60"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>46010</v>
       </c>
@@ -6264,7 +6273,7 @@
       </c>
       <c r="J24" s="60"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>46010</v>
       </c>
@@ -6284,7 +6293,7 @@
       </c>
       <c r="J25" s="60"/>
     </row>
-    <row r="26" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>46010</v>
       </c>
@@ -6304,7 +6313,7 @@
       </c>
       <c r="J26" s="60"/>
     </row>
-    <row r="27" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>46010</v>
       </c>
@@ -6324,7 +6333,7 @@
       </c>
       <c r="J27" s="60"/>
     </row>
-    <row r="28" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>46010</v>
       </c>
@@ -6344,7 +6353,7 @@
       </c>
       <c r="J28" s="60"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>46010</v>
       </c>
@@ -6362,7 +6371,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="60"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>46010</v>
       </c>
@@ -6380,7 +6389,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="60"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>46011</v>
       </c>
@@ -6398,7 +6407,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="60"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>46012</v>
       </c>
@@ -6416,7 +6425,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="60"/>
     </row>
-    <row r="33" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>46012</v>
       </c>
@@ -6434,7 +6443,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="60"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>46012</v>
       </c>
@@ -6454,7 +6463,7 @@
       </c>
       <c r="J34" s="60"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>46012</v>
       </c>
@@ -6474,7 +6483,7 @@
       </c>
       <c r="J35" s="60"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>46013</v>
       </c>
@@ -6494,7 +6503,7 @@
       </c>
       <c r="J36" s="60"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>46013</v>
       </c>
@@ -6512,7 +6521,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="60"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>46013</v>
       </c>
@@ -6530,7 +6539,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="60"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>46014</v>
       </c>
@@ -6553,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>46014</v>
       </c>
@@ -6571,7 +6580,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="60"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>46014</v>
       </c>
@@ -6589,7 +6598,7 @@
       </c>
       <c r="J41" s="60"/>
     </row>
-    <row r="42" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>46015</v>
       </c>
@@ -6605,7 +6614,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="60"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>46015</v>
       </c>
@@ -6621,7 +6630,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="60"/>
     </row>
-    <row r="44" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>46015</v>
       </c>
@@ -6641,7 +6650,7 @@
       </c>
       <c r="J44" s="60"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>46015</v>
       </c>
@@ -6656,11 +6665,11 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
       <c r="J45" s="60">
-        <f>SUM(B45:G45)</f>
+        <f t="shared" ref="J45:J53" si="0">SUM(B45:G45)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="62">
         <v>46015</v>
       </c>
@@ -6677,11 +6686,11 @@
       <c r="H46" s="61"/>
       <c r="I46" s="64"/>
       <c r="J46" s="60">
-        <f>SUM(B46:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>46015</v>
       </c>
@@ -6698,11 +6707,11 @@
       <c r="H47" s="61"/>
       <c r="I47" s="64"/>
       <c r="J47" s="60">
-        <f>SUM(B47:G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="62">
         <v>46015</v>
       </c>
@@ -6719,11 +6728,11 @@
       <c r="H48" s="61"/>
       <c r="I48" s="64"/>
       <c r="J48" s="60">
-        <f>SUM(B48:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>46015</v>
       </c>
@@ -6740,11 +6749,11 @@
       <c r="H49" s="61"/>
       <c r="I49" s="64"/>
       <c r="J49" s="60">
-        <f>SUM(B49:G49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="62">
         <v>46015</v>
       </c>
@@ -6761,11 +6770,11 @@
       <c r="H50" s="61"/>
       <c r="I50" s="64"/>
       <c r="J50" s="60">
-        <f>SUM(B50:G50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>46015</v>
       </c>
@@ -6782,11 +6791,11 @@
       <c r="H51" s="61"/>
       <c r="I51" s="64"/>
       <c r="J51" s="60">
-        <f>SUM(B51:G51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="62">
         <v>46014</v>
       </c>
@@ -6805,11 +6814,11 @@
         <v>119</v>
       </c>
       <c r="J52" s="60">
-        <f>SUM(B52:G52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="62">
         <v>46018</v>
       </c>
@@ -6830,11 +6839,11 @@
         <v>118</v>
       </c>
       <c r="J53" s="60">
-        <f>SUM(B53:G53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="66"/>
       <c r="B54" s="67"/>
       <c r="C54" s="67"/>
@@ -6846,7 +6855,7 @@
       <c r="I54" s="64"/>
       <c r="J54" s="60"/>
     </row>
-    <row r="55" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="66">
         <v>46006</v>
       </c>
@@ -6862,7 +6871,7 @@
       </c>
       <c r="J55" s="60"/>
     </row>
-    <row r="56" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="66">
         <v>46007</v>
       </c>
@@ -6880,7 +6889,7 @@
       </c>
       <c r="J56" s="60"/>
     </row>
-    <row r="57" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="66">
         <v>46008</v>
       </c>
@@ -6898,7 +6907,7 @@
       </c>
       <c r="J57" s="60"/>
     </row>
-    <row r="58" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="66">
         <v>46009</v>
       </c>
@@ -6916,7 +6925,7 @@
       </c>
       <c r="J58" s="60"/>
     </row>
-    <row r="59" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="66">
         <v>46010</v>
       </c>
@@ -6934,7 +6943,7 @@
       </c>
       <c r="J59" s="60"/>
     </row>
-    <row r="60" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="66">
         <v>46011</v>
       </c>
@@ -6952,7 +6961,7 @@
       </c>
       <c r="J60" s="60"/>
     </row>
-    <row r="61" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="66">
         <v>46012</v>
       </c>
@@ -6970,7 +6979,7 @@
       </c>
       <c r="J61" s="60"/>
     </row>
-    <row r="62" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="66">
         <v>46013</v>
       </c>
@@ -6988,7 +6997,7 @@
       </c>
       <c r="J62" s="60"/>
     </row>
-    <row r="63" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="66">
         <v>46014</v>
       </c>
@@ -7006,7 +7015,7 @@
       </c>
       <c r="J63" s="60"/>
     </row>
-    <row r="64" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="66">
         <v>46015</v>
       </c>
@@ -7024,7 +7033,7 @@
       </c>
       <c r="J64" s="60"/>
     </row>
-    <row r="65" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="66">
         <v>46016</v>
       </c>
@@ -7042,7 +7051,7 @@
       </c>
       <c r="J65" s="60"/>
     </row>
-    <row r="66" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="66">
         <v>46017</v>
       </c>
@@ -7060,7 +7069,7 @@
       </c>
       <c r="J66" s="60"/>
     </row>
-    <row r="67" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="66">
         <v>46018</v>
       </c>
@@ -7078,7 +7087,7 @@
       </c>
       <c r="J67" s="60"/>
     </row>
-    <row r="68" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
         <v>73</v>
       </c>
@@ -7087,27 +7096,27 @@
         <v>-290039</v>
       </c>
       <c r="C68" s="65">
-        <f t="shared" ref="C68:H68" si="0">SUM(C2:C67)</f>
+        <f t="shared" ref="C68:H68" si="1">SUM(C2:C67)</f>
         <v>-3091</v>
       </c>
       <c r="D68" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1440</v>
       </c>
       <c r="E68" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3528</v>
       </c>
       <c r="F68" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="G68" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H68" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="64"/>
@@ -7126,26 +7135,26 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -7184,7 +7193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45398</v>
       </c>
@@ -7215,7 +7224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45400</v>
       </c>
@@ -7246,7 +7255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45419</v>
       </c>
@@ -7275,7 +7284,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45435</v>
       </c>
@@ -7296,7 +7305,7 @@
       <c r="P5" s="52"/>
       <c r="Q5" s="53"/>
     </row>
-    <row r="6" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45435</v>
       </c>
@@ -7317,7 +7326,7 @@
       <c r="P6" s="52"/>
       <c r="Q6" s="53"/>
     </row>
-    <row r="7" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45412</v>
       </c>
@@ -7342,7 +7351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45412</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>73</v>
       </c>
@@ -7406,7 +7415,7 @@
       <c r="P9" s="52"/>
       <c r="Q9" s="53"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7420,18 +7429,18 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
@@ -7457,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45826</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45831</v>
       </c>
@@ -7493,7 +7502,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45858</v>
       </c>
@@ -7511,7 +7520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45890</v>
       </c>
@@ -7529,7 +7538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45920</v>
       </c>
@@ -7547,7 +7556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45950</v>
       </c>
@@ -7565,7 +7574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45981</v>
       </c>
@@ -7583,7 +7592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>46011</v>
       </c>
@@ -7601,7 +7610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>46033</v>
       </c>
@@ -7619,7 +7628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7629,7 +7638,7 @@
       <c r="G11" s="40"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>73</v>
       </c>
@@ -7659,7 +7668,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
